--- a/data/stacked_bar_chart_data.xlsx
+++ b/data/stacked_bar_chart_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Documents\Northeastern\ds 4200 2\hw\project-group-6-neuronal-regeneration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A31193-FC91-4916-8828-E35EBAEC7C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AFA33D-5DBC-4FB4-B360-A3B167D54915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="938" yWindow="-98" windowWidth="23160" windowHeight="13695" xr2:uid="{267A2807-AAFC-4E9D-9EE9-C21E2C1E4494}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="21">
   <si>
     <t>regen_type</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>age</t>
-  </si>
-  <si>
-    <t>re-image_time</t>
   </si>
   <si>
     <t>cut_type</t>
@@ -450,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3BEC69-8B67-4D2C-B202-936F00B43015}">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -487,21 +484,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -510,16 +507,16 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="str">
         <f>IF(AND(F2="axon", G2="wild-type"), "wt axon", IF(AND(G2="wild-type", F2="a+d"), "wt a+d", IF(AND(F2="a+d",G2="dlk-1"), "dlk-1 a+d", "NA")))</f>
@@ -528,7 +525,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -537,16 +534,16 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H46" si="0">IF(AND(F3="axon", G3="wild-type"), "wt axon", IF(AND(G3="wild-type", F3="a+d"), "wt a+d", IF(AND(F3="a+d",G3="dlk-1"), "dlk-1 a+d", "NA")))</f>
@@ -555,7 +552,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -564,16 +561,16 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -582,7 +579,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -591,16 +588,16 @@
         <v>0.23809523809523808</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -609,7 +606,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -618,16 +615,16 @@
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -636,7 +633,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -645,16 +642,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -663,7 +660,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -672,16 +669,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -690,7 +687,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -699,16 +696,16 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -717,7 +714,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -726,16 +723,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -744,7 +741,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -753,16 +750,16 @@
         <v>0.25</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -771,7 +768,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -780,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -798,7 +795,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -807,16 +804,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -825,7 +822,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -834,16 +831,16 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -852,7 +849,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -861,16 +858,16 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -879,7 +876,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -888,16 +885,16 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -906,7 +903,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -915,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -933,7 +930,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -942,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -960,7 +957,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -969,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -987,7 +984,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -996,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -1014,7 +1011,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -1023,16 +1020,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -1041,7 +1038,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -1050,16 +1047,16 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
       <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
         <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -1068,7 +1065,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1077,16 +1074,16 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
       <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
         <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -1095,7 +1092,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1104,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
       <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
         <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1131,16 +1128,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
       <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
         <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
       </c>
       <c r="H25" t="str">
         <f>IF(AND(F25="axon", G25="wild-type"), "wt axon", IF(AND(G25="wild-type", F25="a+d"), "wt a+d", IF(AND(F25="a+d",G25="dlk-1"), "dlk-1 a+d", "NA")))</f>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1158,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
       <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
         <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -1176,7 +1173,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -1185,16 +1182,16 @@
         <v>0.375</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
         <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1212,16 +1209,16 @@
         <v>0.3125</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
         <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -1230,7 +1227,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1239,16 +1236,16 @@
         <v>0.125</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
         <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1266,16 +1263,16 @@
         <v>0.125</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
         <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -1284,7 +1281,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1293,16 +1290,16 @@
         <v>6.25E-2</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
         <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -1311,7 +1308,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1320,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>wt axon</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>11</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>wt axon</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>12</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -1347,25 +1344,25 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>wt axon</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1374,25 +1371,25 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>wt axon</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1401,182 +1398,133 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>wt axon</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>wt axon</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>wt a+d</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>wt axon</v>
-      </c>
-      <c r="U35" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>wt axon</v>
-      </c>
-      <c r="U36" t="str">
-        <f>"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V36" t="s">
-        <v>10</v>
-      </c>
-      <c r="W36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="str">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>wt a+d</v>
       </c>
-      <c r="U37" t="str">
-        <f t="shared" ref="U37:U39" si="1">"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V37" t="s">
-        <v>10</v>
-      </c>
-      <c r="W37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="str">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>wt a+d</v>
       </c>
-      <c r="U38" t="str">
-        <f t="shared" si="1"/>
-        <v>12hr</v>
-      </c>
-      <c r="V38" t="s">
-        <v>10</v>
-      </c>
-      <c r="W38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>13</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>wt a+d</v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" si="1"/>
-        <v>12hr</v>
-      </c>
-      <c r="V39" t="s">
-        <v>10</v>
-      </c>
-      <c r="W39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>14</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -1585,25 +1533,25 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>wt a+d</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1612,35 +1560,25 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>wt a+d</v>
       </c>
-      <c r="U41" t="str">
-        <f>"24hr"</f>
-        <v>24hr</v>
-      </c>
-      <c r="V41" t="s">
-        <v>10</v>
-      </c>
-      <c r="W41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1649,35 +1587,25 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
         <v>17</v>
       </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>dlk-1 a+d</v>
       </c>
-      <c r="U42" t="str">
-        <f t="shared" ref="U42:U44" si="2">"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V42" t="s">
-        <v>17</v>
-      </c>
-      <c r="W42" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>12</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -1686,619 +1614,101 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
         <v>17</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>dlk-1 a+d</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="H43" t="str">
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>dlk-1 a+d</v>
       </c>
-      <c r="U43" t="str">
-        <f t="shared" si="2"/>
-        <v>12hr</v>
-      </c>
-      <c r="V43" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="W43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>dlk-1 a+d</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
         <v>17</v>
       </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>dlk-1 a+d</v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="2"/>
-        <v>12hr</v>
-      </c>
-      <c r="V44" t="s">
-        <v>17</v>
-      </c>
-      <c r="W44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>dlk-1 a+d</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>dlk-1 a+d</v>
-      </c>
-      <c r="U46" t="str">
-        <f>"24hr"</f>
-        <v>24hr</v>
-      </c>
-      <c r="V46" t="s">
-        <v>17</v>
-      </c>
-      <c r="W46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="U47" t="str">
-        <f t="shared" ref="U47:U50" si="3">"24hr"</f>
-        <v>24hr</v>
-      </c>
-      <c r="V47" t="s">
-        <v>17</v>
-      </c>
-      <c r="W47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="U48" t="str">
-        <f t="shared" si="3"/>
-        <v>24hr</v>
-      </c>
-      <c r="V48" t="s">
-        <v>17</v>
-      </c>
-      <c r="W48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U49" t="str">
-        <f t="shared" si="3"/>
-        <v>24hr</v>
-      </c>
-      <c r="V49" t="s">
-        <v>17</v>
-      </c>
-      <c r="W49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U50" t="str">
-        <f t="shared" si="3"/>
-        <v>24hr</v>
-      </c>
-      <c r="V50" t="s">
-        <v>17</v>
-      </c>
-      <c r="W50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U52" t="str">
-        <f>"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V52" t="s">
-        <v>17</v>
-      </c>
-      <c r="W52" t="str">
-        <f>"dlk-1"</f>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="53" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U53" t="str">
-        <f t="shared" ref="U53:U56" si="4">"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V53" t="s">
-        <v>17</v>
-      </c>
-      <c r="W53" t="str">
-        <f t="shared" ref="W53:W62" si="5">"dlk-1"</f>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="54" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U54" t="str">
-        <f t="shared" si="4"/>
-        <v>12hr</v>
-      </c>
-      <c r="V54" t="s">
-        <v>17</v>
-      </c>
-      <c r="W54" t="str">
-        <f t="shared" si="5"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="55" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U55" t="str">
-        <f t="shared" si="4"/>
-        <v>12hr</v>
-      </c>
-      <c r="V55" t="s">
-        <v>17</v>
-      </c>
-      <c r="W55" t="str">
-        <f t="shared" si="5"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="56" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U56" t="str">
-        <f t="shared" si="4"/>
-        <v>12hr</v>
-      </c>
-      <c r="V56" t="s">
-        <v>17</v>
-      </c>
-      <c r="W56" t="str">
-        <f t="shared" si="5"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="58" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U58" t="str">
-        <f>"24hr"</f>
-        <v>24hr</v>
-      </c>
-      <c r="V58" t="s">
-        <v>17</v>
-      </c>
-      <c r="W58" t="str">
-        <f t="shared" si="5"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="59" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U59" t="str">
-        <f t="shared" ref="U59:U62" si="6">"24hr"</f>
-        <v>24hr</v>
-      </c>
-      <c r="V59" t="s">
-        <v>17</v>
-      </c>
-      <c r="W59" t="str">
-        <f t="shared" si="5"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="60" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U60" t="str">
-        <f t="shared" si="6"/>
-        <v>24hr</v>
-      </c>
-      <c r="V60" t="s">
-        <v>17</v>
-      </c>
-      <c r="W60" t="str">
-        <f t="shared" si="5"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="61" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U61" t="str">
-        <f t="shared" si="6"/>
-        <v>24hr</v>
-      </c>
-      <c r="V61" t="s">
-        <v>17</v>
-      </c>
-      <c r="W61" t="str">
-        <f t="shared" si="5"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="62" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U62" t="str">
-        <f t="shared" si="6"/>
-        <v>24hr</v>
-      </c>
-      <c r="V62" t="s">
-        <v>17</v>
-      </c>
-      <c r="W62" t="str">
-        <f t="shared" si="5"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="64" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U64" t="str">
-        <f>"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V64" t="s">
-        <v>10</v>
-      </c>
-      <c r="W64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U65" t="str">
-        <f t="shared" ref="U65:U68" si="7">"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V65" t="s">
-        <v>10</v>
-      </c>
-      <c r="W65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U66" t="str">
-        <f t="shared" si="7"/>
-        <v>12hr</v>
-      </c>
-      <c r="V66" t="s">
-        <v>10</v>
-      </c>
-      <c r="W66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U67" t="str">
-        <f t="shared" si="7"/>
-        <v>12hr</v>
-      </c>
-      <c r="V67" t="s">
-        <v>10</v>
-      </c>
-      <c r="W67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U68" t="str">
-        <f t="shared" si="7"/>
-        <v>12hr</v>
-      </c>
-      <c r="V68" t="s">
-        <v>10</v>
-      </c>
-      <c r="W68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U70" t="str">
-        <f>"24hr"</f>
-        <v>24hr</v>
-      </c>
-      <c r="V70" t="s">
-        <v>10</v>
-      </c>
-      <c r="W70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U71" t="str">
-        <f t="shared" ref="U71:U92" si="8">"24hr"</f>
-        <v>24hr</v>
-      </c>
-      <c r="V71" t="s">
-        <v>10</v>
-      </c>
-      <c r="W71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U72" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V72" t="s">
-        <v>10</v>
-      </c>
-      <c r="W72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U73" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V73" t="s">
-        <v>10</v>
-      </c>
-      <c r="W73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U74" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V74" t="s">
-        <v>10</v>
-      </c>
-      <c r="W74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U76" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V76" t="s">
-        <v>17</v>
-      </c>
-      <c r="W76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U77" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V77" t="s">
-        <v>17</v>
-      </c>
-      <c r="W77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U78" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V78" t="s">
-        <v>17</v>
-      </c>
-      <c r="W78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U79" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V79" t="s">
-        <v>17</v>
-      </c>
-      <c r="W79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U80" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V80" t="s">
-        <v>17</v>
-      </c>
-      <c r="W80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U82" t="str">
-        <f>"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V82" t="s">
-        <v>17</v>
-      </c>
-      <c r="W82" t="str">
-        <f>"dlk-1"</f>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="83" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U83" t="str">
-        <f t="shared" ref="U83:U86" si="9">"12hr"</f>
-        <v>12hr</v>
-      </c>
-      <c r="V83" t="s">
-        <v>17</v>
-      </c>
-      <c r="W83" t="str">
-        <f t="shared" ref="W83:W92" si="10">"dlk-1"</f>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="84" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U84" t="str">
-        <f t="shared" si="9"/>
-        <v>12hr</v>
-      </c>
-      <c r="V84" t="s">
-        <v>17</v>
-      </c>
-      <c r="W84" t="str">
-        <f t="shared" si="10"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="85" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U85" t="str">
-        <f t="shared" si="9"/>
-        <v>12hr</v>
-      </c>
-      <c r="V85" t="s">
-        <v>17</v>
-      </c>
-      <c r="W85" t="str">
-        <f t="shared" si="10"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="86" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U86" t="str">
-        <f t="shared" si="9"/>
-        <v>12hr</v>
-      </c>
-      <c r="V86" t="s">
-        <v>17</v>
-      </c>
-      <c r="W86" t="str">
-        <f t="shared" si="10"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="88" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U88" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V88" t="s">
-        <v>17</v>
-      </c>
-      <c r="W88" t="str">
-        <f t="shared" si="10"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="89" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U89" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V89" t="s">
-        <v>17</v>
-      </c>
-      <c r="W89" t="str">
-        <f t="shared" si="10"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="90" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U90" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V90" t="s">
-        <v>17</v>
-      </c>
-      <c r="W90" t="str">
-        <f t="shared" si="10"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="91" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U91" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V91" t="s">
-        <v>17</v>
-      </c>
-      <c r="W91" t="str">
-        <f t="shared" si="10"/>
-        <v>dlk-1</v>
-      </c>
-    </row>
-    <row r="92" spans="21:23" x14ac:dyDescent="0.45">
-      <c r="U92" t="str">
-        <f t="shared" si="8"/>
-        <v>24hr</v>
-      </c>
-      <c r="V92" t="s">
-        <v>17</v>
-      </c>
-      <c r="W92" t="str">
-        <f t="shared" si="10"/>
-        <v>dlk-1</v>
       </c>
     </row>
   </sheetData>
